--- a/biology/Botanique/Lycope/Lycope.xlsx
+++ b/biology/Botanique/Lycope/Lycope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycopus
 Lycopus (les lycopes), du grec lykos : « loup » et pous : « pied », est un genre de plantes à fleurs de la famille des Lamiacées.
-La souche charnue de cette plante a été autrefois mangée en Amérique du Nord par les Amérindiens comme des légumes cuits(L. asper et L. virginicus[2]) et au Japon ils étaient cuits à l'eau[2].
+La souche charnue de cette plante a été autrefois mangée en Amérique du Nord par les Amérindiens comme des légumes cuits(L. asper et L. virginicus) et au Japon ils étaient cuits à l'eau.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lycopus americanus Muhl. ex W. Bart.
 Lycopus amplectens Raf.
